--- a/OUTPUT API/Delta Health 4.15.23.xlsx
+++ b/OUTPUT API/Delta Health 4.15.23.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="171">
   <si>
     <t>EMPLID</t>
   </si>
@@ -1308,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1471,7 @@
         <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -1480,10 +1480,10 @@
         <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
         <v>165</v>
@@ -1500,7 +1500,7 @@
         <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>85</v>
@@ -1509,10 +1509,13 @@
         <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S6" t="s">
         <v>168</v>
@@ -1526,7 +1529,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
@@ -1535,13 +1538,10 @@
         <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S7" t="s">
         <v>168</v>
@@ -1555,7 +1555,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
         <v>85</v>
@@ -1564,13 +1564,10 @@
         <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S8" t="s">
         <v>168</v>
@@ -1581,54 +1578,60 @@
     </row>
     <row r="9" spans="1:21">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>165</v>
       </c>
       <c r="S9" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
         <v>165</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1636,22 +1639,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="S11" t="s">
         <v>73</v>
@@ -1665,7 +1662,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -1674,10 +1671,10 @@
         <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
         <v>165</v>
@@ -1694,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1703,13 +1700,13 @@
         <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S13" t="s">
         <v>73</v>
@@ -1723,7 +1720,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
@@ -1732,13 +1729,13 @@
         <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S14" t="s">
         <v>73</v>
@@ -1752,7 +1749,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
@@ -1761,13 +1758,13 @@
         <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S15" t="s">
         <v>73</v>
@@ -1778,54 +1775,60 @@
     </row>
     <row r="16" spans="1:21">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
       </c>
       <c r="S16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
       </c>
       <c r="S17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -1833,22 +1836,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s">
         <v>74</v>
@@ -1862,7 +1859,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
@@ -1871,10 +1868,10 @@
         <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s">
         <v>165</v>
@@ -1891,7 +1888,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -1900,13 +1897,13 @@
         <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S20" t="s">
         <v>74</v>
@@ -1920,7 +1917,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -1929,13 +1926,13 @@
         <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S21" t="s">
         <v>74</v>
@@ -1949,7 +1946,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
@@ -1958,13 +1955,13 @@
         <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S22" t="s">
         <v>74</v>
@@ -1978,7 +1975,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1987,13 +1984,13 @@
         <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="S23" t="s">
         <v>74</v>
@@ -2004,60 +2001,60 @@
     </row>
     <row r="24" spans="2:20">
       <c r="B24" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
         <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s">
         <v>165</v>
       </c>
       <c r="S24" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
         <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K25" t="s">
         <v>165</v>
       </c>
       <c r="S25" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:20">
@@ -2065,7 +2062,7 @@
         <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>42</v>
@@ -2074,10 +2071,10 @@
         <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s">
         <v>165</v>
@@ -2094,7 +2091,7 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
@@ -2103,10 +2100,10 @@
         <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s">
         <v>165</v>
@@ -2123,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
@@ -2132,10 +2129,10 @@
         <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K28" t="s">
         <v>165</v>
@@ -2152,7 +2149,7 @@
         <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
@@ -2161,10 +2158,10 @@
         <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
         <v>165</v>
@@ -2181,7 +2178,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
@@ -2190,10 +2187,10 @@
         <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s">
         <v>165</v>
@@ -2207,48 +2204,60 @@
     </row>
     <row r="31" spans="2:20">
       <c r="B31" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="K31" t="s">
+        <v>165</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="T31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="I32" t="s">
-        <v>153</v>
+        <v>151</v>
+      </c>
+      <c r="K32" t="s">
+        <v>165</v>
       </c>
       <c r="S32" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="T32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:20">
@@ -2256,16 +2265,16 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="S33" t="s">
         <v>75</v>
@@ -2279,16 +2288,16 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S34" t="s">
         <v>75</v>
@@ -2302,16 +2311,16 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S35" t="s">
         <v>75</v>
@@ -2325,13 +2334,13 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
         <v>152</v>
@@ -2345,147 +2354,135 @@
     </row>
     <row r="37" spans="2:20">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K37" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="S37" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>156</v>
-      </c>
-      <c r="K38" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="S38" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S39" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="T39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
         <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S40" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="T40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
         <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="K41" t="s">
         <v>165</v>
       </c>
       <c r="S41" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="T41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:20">
@@ -2493,7 +2490,7 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
@@ -2502,10 +2499,10 @@
         <v>86</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s">
         <v>165</v>
@@ -2522,16 +2519,22 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
       <c r="H43" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>157</v>
+      </c>
+      <c r="K43" t="s">
+        <v>165</v>
       </c>
       <c r="S43" t="s">
         <v>76</v>
@@ -2545,7 +2548,7 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
@@ -2554,10 +2557,10 @@
         <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s">
         <v>165</v>
@@ -2574,7 +2577,7 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
@@ -2583,10 +2586,10 @@
         <v>86</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I45" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K45" t="s">
         <v>165</v>
@@ -2603,22 +2606,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
-      <c r="F46" t="s">
-        <v>86</v>
-      </c>
       <c r="H46" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>155</v>
-      </c>
-      <c r="K46" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="S46" t="s">
         <v>76</v>
@@ -2629,83 +2626,89 @@
     </row>
     <row r="47" spans="2:20">
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="K47" t="s">
+        <v>165</v>
       </c>
       <c r="S47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s">
         <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s">
         <v>165</v>
       </c>
       <c r="S48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
         <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s">
         <v>165</v>
       </c>
       <c r="S49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:20">
@@ -2713,22 +2716,16 @@
         <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
         <v>42</v>
       </c>
-      <c r="F50" t="s">
-        <v>86</v>
-      </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
-        <v>160</v>
-      </c>
-      <c r="K50" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="S50" t="s">
         <v>77</v>
@@ -2742,7 +2739,7 @@
         <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
         <v>42</v>
@@ -2751,10 +2748,10 @@
         <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I51" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="K51" t="s">
         <v>165</v>
@@ -2771,7 +2768,7 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
         <v>42</v>
@@ -2780,10 +2777,10 @@
         <v>86</v>
       </c>
       <c r="H52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s">
         <v>165</v>
@@ -2800,7 +2797,7 @@
         <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
         <v>42</v>
@@ -2809,10 +2806,10 @@
         <v>86</v>
       </c>
       <c r="H53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s">
         <v>165</v>
@@ -2829,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E54" t="s">
         <v>42</v>
@@ -2838,10 +2835,10 @@
         <v>86</v>
       </c>
       <c r="H54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s">
         <v>165</v>
@@ -2855,71 +2852,89 @@
     </row>
     <row r="55" spans="2:20">
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="K55" t="s">
+        <v>165</v>
       </c>
       <c r="S55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:20">
       <c r="B56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
       </c>
       <c r="H56" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="I56" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="K56" t="s">
+        <v>165</v>
       </c>
       <c r="S56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:20">
       <c r="B57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>86</v>
       </c>
       <c r="H57" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="I57" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="K57" t="s">
+        <v>165</v>
       </c>
       <c r="S57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:20">
@@ -2927,16 +2942,16 @@
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
         <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="S58" t="s">
         <v>78</v>
@@ -2950,285 +2965,94 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
         <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S59" t="s">
         <v>78</v>
       </c>
       <c r="T59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s">
+        <v>159</v>
+      </c>
+      <c r="S60" t="s">
+        <v>78</v>
+      </c>
+      <c r="T60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>163</v>
+      </c>
+      <c r="S61" t="s">
+        <v>78</v>
+      </c>
+      <c r="T61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
+        <v>164</v>
+      </c>
+      <c r="S62" t="s">
+        <v>78</v>
+      </c>
+      <c r="T62" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15f4007343d69c31faccb6c57ce3ea95">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af64184185331e52028044e26cabcf7e" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60DDB95-F9FF-40D0-8FA6-85D7AB4BADD8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119E345B-4DB7-46D3-8AF2-3141CA20B5CC}"/>
 </file>